--- a/set_exceptions.xlsx
+++ b/set_exceptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ozpl\source\repos\piotrek-magic-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF0B60-1278-4FCC-8B70-3513DDBBB40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FCF740-9A5F-4037-B376-7AAFE5E9253A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Old Name</t>
   </si>
@@ -48,12 +48,6 @@
     <t>Ikoria: Lair of Behemoths</t>
   </si>
   <si>
-    <t>Mystery Booster Playtest Cards 2021</t>
-  </si>
-  <si>
-    <t>Mystery Booster Playtest Cards</t>
-  </si>
-  <si>
     <t>Mystical Archive</t>
   </si>
   <si>
@@ -157,12 +151,6 @@
   </si>
   <si>
     <t>The Brothers' War Retro Artifacts</t>
-  </si>
-  <si>
-    <t>Promo Pack: Streets of New Capenna</t>
-  </si>
-  <si>
-    <t>Streets of New Capenna Promos</t>
   </si>
 </sst>
 </file>
@@ -514,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +524,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -544,7 +532,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -552,7 +540,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -600,15 +588,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -624,10 +612,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,66 +628,66 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,30 +704,6 @@
       </c>
       <c r="B24" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
